--- a/biology/Microbiologie/Buetschliellidae/Buetschliellidae.xlsx
+++ b/biology/Microbiologie/Buetschliellidae/Buetschliellidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Buetschliellidae sont une famille de Ciliés de la classe des Oligohymenophorea et de l’ordre des Astomatida.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Buetschliella (ou Bütschliella), donné en hommage au biologiste allemand Otto Bütschli.
 </t>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Buetschliellidae ont une taille, petite (&lt; 80 μm) à grande (&gt; 200 μm). Leur forme est ovoïde à cylindroïde. Ils nagent librement dans leur milieu de vie. Leur ciliation somatique est holotriche (c. à d. homogène), dense, avec des cinéties présentant souvent des irrégularités et des « élinéations » et parfois avec une zone antérieure non ciliée... Leur macronoyau est en forme de bâtonnet ou dendritique. Un micronoyau est présent. Les vacuoles contractiles peuvent être disposées en une rangée longitudinale[1].
-La synapomorphie des « irrégularités et élinéations » dans les cinéties somatiques n'est pas un caractère fort. Ainsi, ce groupe peut ne pas être monophylétique[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Buetschliellidae ont une taille, petite (&lt; 80 μm) à grande (&gt; 200 μm). Leur forme est ovoïde à cylindroïde. Ils nagent librement dans leur milieu de vie. Leur ciliation somatique est holotriche (c. à d. homogène), dense, avec des cinéties présentant souvent des irrégularités et des « élinéations » et parfois avec une zone antérieure non ciliée... Leur macronoyau est en forme de bâtonnet ou dendritique. Un micronoyau est présent. Les vacuoles contractiles peuvent être disposées en une rangée longitudinale.
+La synapomorphie des « irrégularités et élinéations » dans les cinéties somatiques n'est pas un caractère fort. Ainsi, ce groupe peut ne pas être monophylétique.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Buetschliellidae vivent dans des habitats marins, dans le tube digestif de vers annélides polychètes[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Buetschliellidae vivent dans des habitats marins, dans le tube digestif de vers annélides polychètes.
 </t>
         </is>
       </c>
@@ -605,14 +623,16 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (30 juillet 2023)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (30 juillet 2023) :
 Anoplophryopsis de Puytorac, 1954
 Espèce type : Anoplophryopsis ovata Puytorac, 1954
-Selon Lynn (2008)[1] :
+Selon Lynn (2008) :
 Anoplophryopsis de Puytorac, 1954
-Buetschliella Awerinzew, 1908  genre type[3]
+Buetschliella Awerinzew, 1908  genre type
 Espèce type : Buetschliella opheliae Awerinzew, 1908 (nom original Bütschliella opheliae)
 Herpinella de Puytorac, 1954
 Rhizocaryum Caullery &amp; Mesnil, 1907 Incertae sedis dans la famille des Buetschliellidae.
@@ -644,9 +664,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct de ce taxon est Buetschliellidae de Puytorac in Corliss, 1979[4].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct de ce taxon est Buetschliellidae de Puytorac in Corliss, 1979.
 </t>
         </is>
       </c>
